--- a/output/ejecucion_2/results/base0/base0_ci_xgb_st.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_xgb_st.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgge_r08ct05pobso</t>
+    <t>tejgtotfun_f2prots</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r08ct05ambpc</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r08amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f1ct05protspc</t>
+  </si>
+  <si>
+    <t>tejgrb_fonc</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcp</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct06trans</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>pimgct_r00gstcppc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f2ct06agropc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opseg</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opsegpc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5r18ct06opseg</t>
+  </si>
+  <si>
+    <t>mod_110</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f1pgrco</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r07salud</t>
+  </si>
+  <si>
+    <t>tdvgge_r00ct06acanfpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05opsegpc</t>
+  </si>
+  <si>
+    <t>_piagtotfun_f5r18amb</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct05prots</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct06san</t>
+  </si>
+  <si>
+    <t>_piagfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>piagfun_f5r18ct05pgrcopc</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r18amb</t>
+  </si>
+  <si>
+    <t>_tdvgge_r00ct05biser</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct05trans</t>
+  </si>
+  <si>
+    <t>empinc_2</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagtotfun_f1trans</t>
+  </si>
+  <si>
+    <t>piagtotfun_f5r18amb</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05agro</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagfun_f2ct05prsopc</t>
   </si>
   <si>
     <t>_tejgfun_f5r18ct05pgrco</t>
   </si>
   <si>
-    <t>_tejgft_rdetpc</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f5r07turi</t>
-  </si>
-  <si>
-    <t>_tdvgge_r00ct06acanf</t>
-  </si>
-  <si>
-    <t>per_010</t>
-  </si>
-  <si>
-    <t>_devppimgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f5ct06salud</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r18amb</t>
-  </si>
-  <si>
-    <t>pimgfun_f1ct05salud</t>
-  </si>
-  <si>
-    <t>tejgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>tejgtotfun_f2cydep</t>
-  </si>
-  <si>
-    <t>tdvgtotfun_f1pgrcopc</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydeppc</t>
-  </si>
-  <si>
-    <t>tejgrb_fonc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05prots</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f1ct05pgrco</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r07san</t>
-  </si>
-  <si>
-    <t>dfgpimpiafun_f2ct06viv</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f2san</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct06vivpc</t>
-  </si>
-  <si>
-    <t>compu_muni_1</t>
-  </si>
-  <si>
-    <t>piagtotfun_f5r18comepc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>_devppimct_r13gstcr</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagge_r00ct06acanf</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05cydep</t>
-  </si>
-  <si>
-    <t>_tdvgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r07ct05trans</t>
-  </si>
-  <si>
-    <t>pimgfun_f2ct06pgrco</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f4ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tdvgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f4cydep</t>
-  </si>
-  <si>
-    <t>mod_109</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r18ct05come</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f5r18ct05ambpc</t>
-  </si>
-  <si>
-    <t>_tdvgct_r00gstcp</t>
-  </si>
-  <si>
-    <t>devppimgge_r13ct06acanf</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r07ct05edu</t>
-  </si>
-  <si>
-    <t>pimgtotfun_f3trans</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f5r07ct06energ</t>
-  </si>
-  <si>
-    <t>piagfun_f5ct06amb</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct06vivpc</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05dotra</t>
-  </si>
-  <si>
-    <t>_pimgfun_f3ct06pgrcopc</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f1ct06pgrco</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f4cydep</t>
-  </si>
-  <si>
-    <t>_pimgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5opseg</t>
+    <t>mod_4</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f2amb</t>
+  </si>
+  <si>
+    <t>dfgpimpiatotfun_f2energpc</t>
+  </si>
+  <si>
+    <t>pimgfun_f2ct06agropc</t>
+  </si>
+  <si>
+    <t>_dfgpimpiatotfun_f5r18come</t>
+  </si>
+  <si>
+    <t>dfgdevpiagge_r08ct05dotra</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f1ct06transpc</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct06transpc</t>
+  </si>
+  <si>
+    <t>per_058</t>
+  </si>
+  <si>
+    <t>_pimgtotfun_f5r18amb</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct05salud</t>
+  </si>
+  <si>
+    <t>piagfun_f5r07ct06amb</t>
+  </si>
+  <si>
+    <t>tdvgfun_f2ct06cydep</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5ct05salud</t>
+  </si>
+  <si>
+    <t>tdvgfun_f5r18ct05sanpc</t>
+  </si>
+  <si>
+    <t>tdvgtotfun_f5r07pgrcopc</t>
+  </si>
+  <si>
+    <t>tdvgfun_f5ct05turi</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.03135034069418907</v>
+        <v>0.03118590079247952</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02354545891284943</v>
+        <v>0.02630054578185081</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.022645004093647</v>
+        <v>0.02309722825884819</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0152159733697772</v>
+        <v>0.01899408735334873</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01322902739048004</v>
+        <v>0.01786344312131405</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01243043225258589</v>
+        <v>0.0169106237590313</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.0121228639036417</v>
+        <v>0.01605844311416149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01170274801552296</v>
+        <v>0.01529358886182308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01166217122226954</v>
+        <v>0.01509196776896715</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01123807765543461</v>
+        <v>0.01397909969091415</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01111467555165291</v>
+        <v>0.01250683888792992</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01095094904303551</v>
+        <v>0.01242949441075325</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01068854983896017</v>
+        <v>0.01197887491434813</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.009919364005327225</v>
+        <v>0.01093059033155441</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.009875639341771603</v>
+        <v>0.01023506559431553</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.009849109686911106</v>
+        <v>0.01000879146158695</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.009835266508162022</v>
+        <v>0.009660263545811176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.009703136049211025</v>
+        <v>0.009640133008360863</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.009450275450944901</v>
+        <v>0.008329198695719242</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.009385393001139164</v>
+        <v>0.008192994631826878</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.009149257093667984</v>
+        <v>0.007927043363451958</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.009048770181834698</v>
+        <v>0.007553998846560717</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009008129127323627</v>
+        <v>0.00747865904122591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.007821345701813698</v>
+        <v>0.007312317378818989</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.007666302844882011</v>
+        <v>0.006880724802613258</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.00740674277767539</v>
+        <v>0.006703387945890427</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.007276337593793869</v>
+        <v>0.006687203887850046</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.006804474163800478</v>
+        <v>0.006491912994533777</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.006668575573712587</v>
+        <v>0.006349866278469563</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006588953547179699</v>
+        <v>0.006305061746388674</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.006520064547657967</v>
+        <v>0.006273797247558832</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.006329696625471115</v>
+        <v>0.006059905979782343</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006146593485027552</v>
+        <v>0.006059763487428427</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006128791719675064</v>
+        <v>0.005842334590852261</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006089739035815001</v>
+        <v>0.00573068531230092</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.005779699888080359</v>
+        <v>0.005522007588297129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.005681718699634075</v>
+        <v>0.005351630039513111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.00563568202778697</v>
+        <v>0.005187603179365396</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.005470286123454571</v>
+        <v>0.005170976277440786</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.005283817648887634</v>
+        <v>0.005101517308503389</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.005198449827730656</v>
+        <v>0.004973649512976408</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.005037560593336821</v>
+        <v>0.004931308794766665</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.00502917030826211</v>
+        <v>0.004799263551831245</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004977111238986254</v>
+        <v>0.004794045351445675</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004975948482751846</v>
+        <v>0.004781284369528294</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004855588544160128</v>
+        <v>0.004614135250449181</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004852036945521832</v>
+        <v>0.00461158249527216</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.004681239370256662</v>
+        <v>0.004571369849145412</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.004545422270894051</v>
+        <v>0.004560641013085842</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.004538622684776783</v>
+        <v>0.00451612425968051</v>
       </c>
     </row>
   </sheetData>
